--- a/assets/Users/XLSX/ISEC-Group_Users.xlsx
+++ b/assets/Users/XLSX/ISEC-Group_Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deploy\Assets\CSV\Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeldidier\Documents\GitHub\ActiveDirectory-Monitoring-CESI-Project\assets\Users\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412DA893-C47F-4CDE-B2EE-40CEE17B0E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC81A25-CB8C-483E-8F8D-698FBC5B4429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
+    <workbookView xWindow="1399" yWindow="1399" windowWidth="19563" windowHeight="10257" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Group</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Full-Login</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Groups</t>
-  </si>
-  <si>
     <t>olivier</t>
   </si>
   <si>
@@ -171,6 +165,39 @@
   </si>
   <si>
     <t>arnaud</t>
+  </si>
+  <si>
+    <t>OU=HR,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
+  </si>
+  <si>
+    <t>OU=Direction,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
+  </si>
+  <si>
+    <t>OU=ADFI,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
+  </si>
+  <si>
+    <t>OU=Business,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
+  </si>
+  <si>
+    <t>OU=Communication,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>GRP-GRP-SEC-GLO-ADFI-ALL</t>
+  </si>
+  <si>
+    <t>GRP-GRP-SEC-GLO-BUSINESS-ALL</t>
+  </si>
+  <si>
+    <t>GRP-GRP-SEC-GLO-COMMUNICATION-ALL</t>
+  </si>
+  <si>
+    <t>GRP-GRP-SEC-GLO-HR-ALL</t>
+  </si>
+  <si>
+    <t>GRP-GRP-SEC-GLO-DIRECTION-ALL</t>
   </si>
 </sst>
 </file>
@@ -206,10 +233,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B133CB-89F3-47DA-B24A-E4DFBE7EA2C1}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -542,587 +572,684 @@
     <col min="7" max="7" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="1"/>
+    <col min="10" max="10" width="77.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E17" si="0">PROPER(C2)</f>
         <v>Oliver</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F17" si="1">UPPER(D2)</f>
         <v>KOMSKI</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <f t="shared" ref="G2:G17" si="2">E2&amp;" "&amp;F2</f>
         <v>Oliver KOMSKI</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <f t="shared" ref="H2:H17" si="3">C2&amp;"."&amp;D2</f>
         <v>oliver.komski</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I17" si="4">C2&amp;"."&amp;D2&amp;"@"&amp;B2</f>
         <v>oliver.komski@isec-group.local</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="str">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Daphne</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MEYNOT</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Daphne MEYNOT</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <f t="shared" si="3"/>
         <v>daphne.meynot</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="4"/>
         <v>daphne.meynot@isec-group.local</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="str">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Julie</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>BERTALI</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Julie BERTALI</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <f t="shared" si="3"/>
         <v>julie.bertali</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="4"/>
         <v>julie.bertali@isec-group.local</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="str">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yves</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>TYRAEL</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Yves TYRAEL</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <f t="shared" si="3"/>
         <v>yves.tyrael</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="4"/>
         <v>yves.tyrael@isec-group.local</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="str">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Paolo</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NOLAN</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Paolo NOLAN</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>paolo.nolan</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="4"/>
         <v>paolo.nolan@isec-group.local</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="str">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Olivier</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROUSSEAUX</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Olivier ROUSSEAUX</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>olivier.rousseaux</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="4"/>
         <v>olivier.rousseaux@isec-group.local</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="str">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Pedro</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>AUBERGIER</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Pedro AUBERGIER</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>pedro.aubergier</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="4"/>
         <v>pedro.aubergier@isec-group.local</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="str">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ludwig</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>CORRET</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Ludwig CORRET</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>ludwig.corret</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="4"/>
         <v>ludwig.corret@isec-group.local</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="str">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Herve</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>LELEU</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Herve LELEU</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>herve.leleu</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="4"/>
         <v>herve.leleu@isec-group.local</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="str">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Philippe</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MARIE</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Philippe MARIE</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>philippe.marie</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="4"/>
         <v>philippe.marie@isec-group.local</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="str">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Denise</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DUPRE</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Denise DUPRE</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>denise.dupre</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="4"/>
         <v>denise.dupre@isec-group.local</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="str">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Baptiste</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>COLMARD</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Baptiste COLMARD</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>baptiste.colmard</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="4"/>
         <v>baptiste.colmard@isec-group.local</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="str">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Laura</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DEGET</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Laura DEGET</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>laura.deget</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="4"/>
         <v>laura.deget@isec-group.local</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="str">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Denis</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>VINITOST</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Denis VINITOST</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>denis.vinitost</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="4"/>
         <v>denis.vinitost@isec-group.local</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="str">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Sylvie</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DUCHENE</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Sylvie DUCHENE</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="H16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>sylvie.duchene</v>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="4"/>
         <v>sylvie.duchene@isec-group.local</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="str">
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Didier</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ARNAUD</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Didier ARNAUD</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>didier.arnaud</v>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="4"/>
         <v>didier.arnaud@isec-group.local</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1141,6 +1268,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF53B23E1A186D429F7476A7F9068EA1" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f63c5227f6c0ba646daf02302a341a6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="996262a7-3dcd-416b-b242-e817ca96ab58" xmlns:ns4="b08cce6a-a932-4476-ab67-820c604c8f57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e46064929b248f733283db82a694a5fe" ns3:_="" ns4:_="">
     <xsd:import namespace="996262a7-3dcd-416b-b242-e817ca96ab58"/>
@@ -1325,12 +1458,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FB3045-86EB-49A9-8C63-BD5AF1E42D22}">
   <ds:schemaRefs>
@@ -1340,6 +1467,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6F2C02-C7C5-4D9B-82B7-ADD031510E53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1356,13 +1492,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/Users/XLSX/ISEC-Group_Users.xlsx
+++ b/assets/Users/XLSX/ISEC-Group_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeldidier\Documents\GitHub\ActiveDirectory-Monitoring-CESI-Project\assets\Users\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC81A25-CB8C-483E-8F8D-698FBC5B4429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B49CD-9E08-4E25-86EF-0CA44C78CCC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1399" yWindow="1399" windowWidth="19563" windowHeight="10257" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>OU=Communication,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
     <t>GRP-GRP-SEC-GLO-ADFI-ALL</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>GRP-GRP-SEC-GLO-DIRECTION-ALL</t>
+  </si>
+  <si>
+    <t>UserPath</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>43</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>43</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>43</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1268,12 +1268,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF53B23E1A186D429F7476A7F9068EA1" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f63c5227f6c0ba646daf02302a341a6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="996262a7-3dcd-416b-b242-e817ca96ab58" xmlns:ns4="b08cce6a-a932-4476-ab67-820c604c8f57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e46064929b248f733283db82a694a5fe" ns3:_="" ns4:_="">
     <xsd:import namespace="996262a7-3dcd-416b-b242-e817ca96ab58"/>
@@ -1458,6 +1452,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FB3045-86EB-49A9-8C63-BD5AF1E42D22}">
   <ds:schemaRefs>
@@ -1467,15 +1467,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6F2C02-C7C5-4D9B-82B7-ADD031510E53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1492,4 +1483,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/Users/XLSX/ISEC-Group_Users.xlsx
+++ b/assets/Users/XLSX/ISEC-Group_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeldidier\Documents\GitHub\ActiveDirectory-Monitoring-CESI-Project\assets\Users\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B49CD-9E08-4E25-86EF-0CA44C78CCC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC81A25-CB8C-483E-8F8D-698FBC5B4429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1399" yWindow="1399" windowWidth="19563" windowHeight="10257" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
   </bookViews>
@@ -182,6 +182,9 @@
     <t>OU=Communication,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
   </si>
   <si>
+    <t>Path</t>
+  </si>
+  <si>
     <t>GRP-GRP-SEC-GLO-ADFI-ALL</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
   </si>
   <si>
     <t>GRP-GRP-SEC-GLO-DIRECTION-ALL</t>
-  </si>
-  <si>
-    <t>UserPath</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>43</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>43</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>43</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1268,6 +1268,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF53B23E1A186D429F7476A7F9068EA1" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f63c5227f6c0ba646daf02302a341a6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="996262a7-3dcd-416b-b242-e817ca96ab58" xmlns:ns4="b08cce6a-a932-4476-ab67-820c604c8f57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e46064929b248f733283db82a694a5fe" ns3:_="" ns4:_="">
     <xsd:import namespace="996262a7-3dcd-416b-b242-e817ca96ab58"/>
@@ -1452,12 +1458,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FB3045-86EB-49A9-8C63-BD5AF1E42D22}">
   <ds:schemaRefs>
@@ -1467,6 +1467,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6F2C02-C7C5-4D9B-82B7-ADD031510E53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1483,13 +1492,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/Users/XLSX/ISEC-Group_Users.xlsx
+++ b/assets/Users/XLSX/ISEC-Group_Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeldidier\Documents\GitHub\ActiveDirectory-Monitoring-CESI-Project\assets\Users\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC81A25-CB8C-483E-8F8D-698FBC5B4429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E09DF3-EFDA-4B15-815A-A09F51F8AA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1399" yWindow="1399" windowWidth="19563" windowHeight="10257" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>Group</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>GRP-GRP-SEC-GLO-DIRECTION-ALL</t>
+  </si>
+  <si>
+    <t>PSNewADUserEquiv</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
   </si>
 </sst>
 </file>
@@ -555,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B133CB-89F3-47DA-B24A-E4DFBE7EA2C1}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -574,12 +580,13 @@
     <col min="9" max="9" width="35.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="1"/>
+    <col min="12" max="12" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -611,8 +618,11 @@
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -651,8 +661,12 @@
       <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="str">
+        <f>"New-ADUser -Name '"&amp;G2&amp;"' -GivenName '"&amp;C2&amp;"' -Surname  '"&amp;D2&amp;"'  -SamAccountName '"&amp;H2&amp;"'  -UserPrincipalName '"&amp;I2&amp;"'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress '"&amp;I2&amp;"' -Path '"&amp;J2&amp;"' -ErrorAction Stop"</f>
+        <v>New-ADUser -Name 'Oliver KOMSKI' -GivenName 'oliver' -Surname  'komski'  -SamAccountName 'oliver.komski'  -UserPrincipalName 'oliver.komski@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'oliver.komski@isec-group.local' -Path 'OU=Direction,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -691,8 +705,12 @@
       <c r="K3" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L17" si="5">"New-ADUser -Name '"&amp;G3&amp;"' -GivenName '"&amp;C3&amp;"' -Surname  '"&amp;D3&amp;"'  -SamAccountName '"&amp;H3&amp;"'  -UserPrincipalName '"&amp;I3&amp;"'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress '"&amp;I3&amp;"' -Path '"&amp;J3&amp;"' -ErrorAction Stop"</f>
+        <v>New-ADUser -Name 'Daphne MEYNOT' -GivenName 'daphne' -Surname  'meynot'  -SamAccountName 'daphne.meynot'  -UserPrincipalName 'daphne.meynot@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'daphne.meynot@isec-group.local' -Path 'OU=Direction,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -731,8 +749,12 @@
       <c r="K4" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Julie BERTALI' -GivenName 'julie' -Surname  'bertali'  -SamAccountName 'julie.bertali'  -UserPrincipalName 'julie.bertali@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'julie.bertali@isec-group.local' -Path 'OU=Business,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -771,8 +793,12 @@
       <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Yves TYRAEL' -GivenName 'yves' -Surname  'tyrael'  -SamAccountName 'yves.tyrael'  -UserPrincipalName 'yves.tyrael@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'yves.tyrael@isec-group.local' -Path 'OU=Business,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -811,8 +837,12 @@
       <c r="K6" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Paolo NOLAN' -GivenName 'paolo' -Surname  'nolan'  -SamAccountName 'paolo.nolan'  -UserPrincipalName 'paolo.nolan@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'paolo.nolan@isec-group.local' -Path 'OU=Business,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -851,8 +881,12 @@
       <c r="K7" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Olivier ROUSSEAUX' -GivenName 'olivier' -Surname  'rousseaux'  -SamAccountName 'olivier.rousseaux'  -UserPrincipalName 'olivier.rousseaux@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'olivier.rousseaux@isec-group.local' -Path 'OU=Business,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -891,8 +925,12 @@
       <c r="K8" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Pedro AUBERGIER' -GivenName 'pedro' -Surname  'aubergier'  -SamAccountName 'pedro.aubergier'  -UserPrincipalName 'pedro.aubergier@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'pedro.aubergier@isec-group.local' -Path 'OU=Communication,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -931,8 +969,12 @@
       <c r="K9" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Ludwig CORRET' -GivenName 'ludwig' -Surname  'corret'  -SamAccountName 'ludwig.corret'  -UserPrincipalName 'ludwig.corret@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'ludwig.corret@isec-group.local' -Path 'OU=Communication,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -971,8 +1013,12 @@
       <c r="K10" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Herve LELEU' -GivenName 'herve' -Surname  'leleu'  -SamAccountName 'herve.leleu'  -UserPrincipalName 'herve.leleu@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'herve.leleu@isec-group.local' -Path 'OU=Communication,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +1057,12 @@
       <c r="K11" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Philippe MARIE' -GivenName 'philippe' -Surname  'marie'  -SamAccountName 'philippe.marie'  -UserPrincipalName 'philippe.marie@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'philippe.marie@isec-group.local' -Path 'OU=ADFI,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1051,8 +1101,12 @@
       <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Denise DUPRE' -GivenName 'denise' -Surname  'dupre'  -SamAccountName 'denise.dupre'  -UserPrincipalName 'denise.dupre@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'denise.dupre@isec-group.local' -Path 'OU=ADFI,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1091,8 +1145,12 @@
       <c r="K13" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Baptiste COLMARD' -GivenName 'baptiste' -Surname  'colmard'  -SamAccountName 'baptiste.colmard'  -UserPrincipalName 'baptiste.colmard@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'baptiste.colmard@isec-group.local' -Path 'OU=ADFI,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1131,8 +1189,12 @@
       <c r="K14" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Laura DEGET' -GivenName 'laura' -Surname  'deget'  -SamAccountName 'laura.deget'  -UserPrincipalName 'laura.deget@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'laura.deget@isec-group.local' -Path 'OU=ADFI,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1171,8 +1233,12 @@
       <c r="K15" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Denis VINITOST' -GivenName 'denis' -Surname  'vinitost'  -SamAccountName 'denis.vinitost'  -UserPrincipalName 'denis.vinitost@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'denis.vinitost@isec-group.local' -Path 'OU=HR,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1211,8 +1277,12 @@
       <c r="K16" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Sylvie DUCHENE' -GivenName 'sylvie' -Surname  'duchene'  -SamAccountName 'sylvie.duchene'  -UserPrincipalName 'sylvie.duchene@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'sylvie.duchene@isec-group.local' -Path 'OU=HR,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1251,10 +1321,15 @@
       <c r="K17" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>New-ADUser -Name 'Didier ARNAUD' -GivenName 'didier' -Surname  'arnaud'  -SamAccountName 'didier.arnaud'  -UserPrincipalName 'didier.arnaud@isec-group.local'  -AccountPassword (ConvertTo-SecureString 'P@ssw0rd!' -AsPlainText -Force) -Enabled $true -ProfilePath '\\S-GRP-AD01.isec-group.local\RoamingProfiles\%username%' -EmailAddress 'didier.arnaud@isec-group.local' -Path 'OU=HR,OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local' -ErrorAction Stop</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K2" xr:uid="{ECC2A2DF-3B8C-41F0-ADE7-0459B5406233}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1268,12 +1343,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF53B23E1A186D429F7476A7F9068EA1" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f63c5227f6c0ba646daf02302a341a6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="996262a7-3dcd-416b-b242-e817ca96ab58" xmlns:ns4="b08cce6a-a932-4476-ab67-820c604c8f57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e46064929b248f733283db82a694a5fe" ns3:_="" ns4:_="">
     <xsd:import namespace="996262a7-3dcd-416b-b242-e817ca96ab58"/>
@@ -1458,6 +1527,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FB3045-86EB-49A9-8C63-BD5AF1E42D22}">
   <ds:schemaRefs>
@@ -1467,15 +1542,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6F2C02-C7C5-4D9B-82B7-ADD031510E53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1492,4 +1558,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>